--- a/PyGeo2020UF.xlsx
+++ b/PyGeo2020UF.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PYRX" sheetId="1" r:id="rId1"/>
     <sheet name="Whole_Rock" sheetId="3" r:id="rId2"/>
-    <sheet name="WELL" sheetId="2" r:id="rId3"/>
+    <sheet name="WELL_GEO" sheetId="2" r:id="rId3"/>
+    <sheet name="WELL_ALT" sheetId="5" r:id="rId4"/>
+    <sheet name="WELL_GT" sheetId="6" r:id="rId5"/>
+    <sheet name="GCHRON" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>Oxide (wt.%)</t>
   </si>
@@ -257,6 +260,54 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Lithology</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>slts</t>
+  </si>
+  <si>
+    <t>monz</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>R-val</t>
+  </si>
+  <si>
+    <t>Au_gt</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2987,14 +3038,2613 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>786</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>786</v>
+      </c>
+      <c r="B8">
+        <v>800</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>1100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>720</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>720</v>
+      </c>
+      <c r="B8">
+        <v>786</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>786</v>
+      </c>
+      <c r="B9">
+        <v>800</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>1100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>190</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>210</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <v>240</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <v>260</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <v>270</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <v>280</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <v>290</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>290</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>310</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>310</v>
+      </c>
+      <c r="B33">
+        <v>320</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <v>330</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <v>340</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <v>350</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>350</v>
+      </c>
+      <c r="B37">
+        <v>360</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>360</v>
+      </c>
+      <c r="B38">
+        <v>370</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>370</v>
+      </c>
+      <c r="B39">
+        <v>380</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>380</v>
+      </c>
+      <c r="B40">
+        <v>390</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>390</v>
+      </c>
+      <c r="B41">
+        <v>400</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <v>410</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>410</v>
+      </c>
+      <c r="B43">
+        <v>420</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>420</v>
+      </c>
+      <c r="B44">
+        <v>430</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>430</v>
+      </c>
+      <c r="B45">
+        <v>440</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>440</v>
+      </c>
+      <c r="B46">
+        <v>450</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>450</v>
+      </c>
+      <c r="B47">
+        <v>460</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>460</v>
+      </c>
+      <c r="B48">
+        <v>470</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>470</v>
+      </c>
+      <c r="B49">
+        <v>480</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>480</v>
+      </c>
+      <c r="B50">
+        <v>490</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>490</v>
+      </c>
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>500</v>
+      </c>
+      <c r="B52">
+        <v>510</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>510</v>
+      </c>
+      <c r="B53">
+        <v>520</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>520</v>
+      </c>
+      <c r="B54">
+        <v>530</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>530</v>
+      </c>
+      <c r="B55">
+        <v>540</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>540</v>
+      </c>
+      <c r="B56">
+        <v>550</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>550</v>
+      </c>
+      <c r="B57">
+        <v>560</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>560</v>
+      </c>
+      <c r="B58">
+        <v>570</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>570</v>
+      </c>
+      <c r="B59">
+        <v>580</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>580</v>
+      </c>
+      <c r="B60">
+        <v>590</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>590</v>
+      </c>
+      <c r="B61">
+        <v>600</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>600</v>
+      </c>
+      <c r="B62">
+        <v>610</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>610</v>
+      </c>
+      <c r="B63">
+        <v>620</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>620</v>
+      </c>
+      <c r="B64">
+        <v>630</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>630</v>
+      </c>
+      <c r="B65">
+        <v>640</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>640</v>
+      </c>
+      <c r="B66">
+        <v>650</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>650</v>
+      </c>
+      <c r="B67">
+        <v>660</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>660</v>
+      </c>
+      <c r="B68">
+        <v>670</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>670</v>
+      </c>
+      <c r="B69">
+        <v>680</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>680</v>
+      </c>
+      <c r="B70">
+        <v>690</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>690</v>
+      </c>
+      <c r="B71">
+        <v>700</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>700</v>
+      </c>
+      <c r="B72">
+        <v>710</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>710</v>
+      </c>
+      <c r="B73">
+        <v>720</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>720</v>
+      </c>
+      <c r="B74">
+        <v>730</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>730</v>
+      </c>
+      <c r="B75">
+        <v>740</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>740</v>
+      </c>
+      <c r="B76">
+        <v>750</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>750</v>
+      </c>
+      <c r="B77">
+        <v>760</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>760</v>
+      </c>
+      <c r="B78">
+        <v>770</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>770</v>
+      </c>
+      <c r="B79">
+        <v>780</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>780</v>
+      </c>
+      <c r="B80">
+        <v>790</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>790</v>
+      </c>
+      <c r="B81">
+        <v>800</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>23.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>800</v>
+      </c>
+      <c r="B82">
+        <v>810</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>810</v>
+      </c>
+      <c r="B83">
+        <v>820</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>820</v>
+      </c>
+      <c r="B84">
+        <v>830</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>830</v>
+      </c>
+      <c r="B85">
+        <v>840</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>840</v>
+      </c>
+      <c r="B86">
+        <v>850</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>850</v>
+      </c>
+      <c r="B87">
+        <v>860</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>860</v>
+      </c>
+      <c r="B88">
+        <v>870</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>870</v>
+      </c>
+      <c r="B89">
+        <v>880</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>880</v>
+      </c>
+      <c r="B90">
+        <v>890</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>890</v>
+      </c>
+      <c r="B91">
+        <v>900</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>900</v>
+      </c>
+      <c r="B92">
+        <v>910</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>910</v>
+      </c>
+      <c r="B93">
+        <v>920</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>920</v>
+      </c>
+      <c r="B94">
+        <v>930</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>930</v>
+      </c>
+      <c r="B95">
+        <v>940</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>940</v>
+      </c>
+      <c r="B96">
+        <v>950</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>950</v>
+      </c>
+      <c r="B97">
+        <v>960</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>960</v>
+      </c>
+      <c r="B98">
+        <v>970</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>970</v>
+      </c>
+      <c r="B99">
+        <v>980</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>980</v>
+      </c>
+      <c r="B100">
+        <v>990</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>990</v>
+      </c>
+      <c r="B101">
+        <v>1000</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1000</v>
+      </c>
+      <c r="B102">
+        <v>1010</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1010</v>
+      </c>
+      <c r="B103">
+        <v>1020</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1020</v>
+      </c>
+      <c r="B104">
+        <v>1030</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1030</v>
+      </c>
+      <c r="B105">
+        <v>1040</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1040</v>
+      </c>
+      <c r="B106">
+        <v>1050</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1050</v>
+      </c>
+      <c r="B107">
+        <v>1060</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1060</v>
+      </c>
+      <c r="B108">
+        <v>1070</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1070</v>
+      </c>
+      <c r="B109">
+        <v>1080</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1080</v>
+      </c>
+      <c r="B110">
+        <v>1090</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1090</v>
+      </c>
+      <c r="B111">
+        <v>1100</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>819.13001270129428</v>
+      </c>
+      <c r="B2">
+        <v>9.4752174682951136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>256.05902604820227</v>
+      </c>
+      <c r="B3">
+        <v>3.3078519992423594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>314.84546374616247</v>
+      </c>
+      <c r="B4">
+        <v>4.6531258352905525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>945.4326342525776</v>
+      </c>
+      <c r="B5">
+        <v>8.878072128379813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1008.1678468464191</v>
+      </c>
+      <c r="B6">
+        <v>9.2159436148493796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1008.166539109375</v>
+      </c>
+      <c r="B7">
+        <v>9.3379159471273852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1056.3963645523345</v>
+      </c>
+      <c r="B8">
+        <v>11.662042435993271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>117.92724777623442</v>
+      </c>
+      <c r="B9">
+        <v>1.7351278209038554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1002.8039849172512</v>
+      </c>
+      <c r="B10">
+        <v>9.2841160105962217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1012.7946504430819</v>
+      </c>
+      <c r="B11">
+        <v>9.9803362547086181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>274.34126606770008</v>
+      </c>
+      <c r="B12">
+        <v>3.5560800125660421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1014.404131127805</v>
+      </c>
+      <c r="B13">
+        <v>9.9916029472902892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>262.7335894163233</v>
+      </c>
+      <c r="B14">
+        <v>3.3675303692157854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1091.8713452486754</v>
+      </c>
+      <c r="B15">
+        <v>9.9943930415108753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>430.86650766686637</v>
+      </c>
+      <c r="B16">
+        <v>5.1545189883316311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2773.8948714668427</v>
+      </c>
+      <c r="B17">
+        <v>13.8741766981816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>256.93481091434779</v>
+      </c>
+      <c r="B18">
+        <v>3.3563993313368883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>57.933089206860657</v>
+      </c>
+      <c r="B19">
+        <v>0.88315333913218552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>120.46054978545473</v>
+      </c>
+      <c r="B20">
+        <v>1.6989359410771954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>249.20698555941942</v>
+      </c>
+      <c r="B21">
+        <v>3.3452624963865674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>256.64291708837993</v>
+      </c>
+      <c r="B22">
+        <v>3.2989982609674371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>627.07497144702802</v>
+      </c>
+      <c r="B23">
+        <v>7.5971573285988825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>895.76350875103708</v>
+      </c>
+      <c r="B24">
+        <v>9.7274061450508498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1018.1345953663442</v>
+      </c>
+      <c r="B25">
+        <v>9.3135161319976305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>260.54882901587973</v>
+      </c>
+      <c r="B26">
+        <v>3.3571597720688828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>933.20655935774346</v>
+      </c>
+      <c r="B27">
+        <v>8.9911503463841882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1680.3150788137334</v>
+      </c>
+      <c r="B28">
+        <v>12.079256645736905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1083.4069023009979</v>
+      </c>
+      <c r="B29">
+        <v>10.763038939037642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>991.42417584800091</v>
+      </c>
+      <c r="B30">
+        <v>10.73686064148535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>539.40215931836701</v>
+      </c>
+      <c r="B31">
+        <v>11.27508080583857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>119.84983827947391</v>
+      </c>
+      <c r="B32">
+        <v>1.6488583946571964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>998.95474875278421</v>
+      </c>
+      <c r="B33">
+        <v>9.3021969260848891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>542.22427162261545</v>
+      </c>
+      <c r="B34">
+        <v>6.1070935218455134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>617.81922360810563</v>
+      </c>
+      <c r="B35">
+        <v>6.737986872205056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>278.68510795976982</v>
+      </c>
+      <c r="B36">
+        <v>3.6027036782589903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>987.83108475632878</v>
+      </c>
+      <c r="B37">
+        <v>9.6921212438513749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>528.15706951705465</v>
+      </c>
+      <c r="B38">
+        <v>5.942688116225213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>251.17260396024898</v>
+      </c>
+      <c r="B39">
+        <v>3.2627303736215367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>259.44743877974611</v>
+      </c>
+      <c r="B40">
+        <v>3.4271328886203491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>619.0888216938115</v>
+      </c>
+      <c r="B41">
+        <v>6.735104950616801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>322.31333371015563</v>
+      </c>
+      <c r="B42">
+        <v>4.0042196703940363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>181.65299494704803</v>
+      </c>
+      <c r="B43">
+        <v>2.6471601361808439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>259.38672607648124</v>
+      </c>
+      <c r="B44">
+        <v>3.3818595548649455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>164.63681731656001</v>
+      </c>
+      <c r="B45">
+        <v>2.2320050804036384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>972.55057831711599</v>
+      </c>
+      <c r="B46">
+        <v>9.1297293838540554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>120.81010998073987</v>
+      </c>
+      <c r="B47">
+        <v>1.6814842953050686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1148.4726076331126</v>
+      </c>
+      <c r="B48">
+        <v>10.344045503926282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1212.1423880346767</v>
+      </c>
+      <c r="B49">
+        <v>10.250242133089841</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>249.28195453805387</v>
+      </c>
+      <c r="B50">
+        <v>3.6522407945972759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1166.6331907566775</v>
+      </c>
+      <c r="B51">
+        <v>10.087431575879918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>272.72289836284807</v>
+      </c>
+      <c r="B52">
+        <v>3.5099967303144695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>256.42031936907529</v>
+      </c>
+      <c r="B53">
+        <v>3.3212392056441331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>519.74979949073713</v>
+      </c>
+      <c r="B54">
+        <v>5.9284260914000697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>124.57547982565312</v>
+      </c>
+      <c r="B55">
+        <v>1.7449262559170933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>994.41534674402465</v>
+      </c>
+      <c r="B56">
+        <v>9.1007845802315614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>993.99064791102489</v>
+      </c>
+      <c r="B57">
+        <v>9.4106491202340976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>258.83040536578261</v>
+      </c>
+      <c r="B58">
+        <v>3.3625278948908317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1169.1472397307737</v>
+      </c>
+      <c r="B59">
+        <v>13.2430606190444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>804.22560138164602</v>
+      </c>
+      <c r="B60">
+        <v>8.764938896385388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2088.187108752436</v>
+      </c>
+      <c r="B61">
+        <v>22.787073189963394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1170.6421484542357</v>
+      </c>
+      <c r="B62">
+        <v>10.076202904411275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1174.6011920513274</v>
+      </c>
+      <c r="B63">
+        <v>10.007136012582123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>887.31923116437849</v>
+      </c>
+      <c r="B64">
+        <v>8.8283012030025247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>442.14591532708221</v>
+      </c>
+      <c r="B65">
+        <v>9.6133426485431528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1228.5130058711152</v>
+      </c>
+      <c r="B66">
+        <v>10.395546303846004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>248.31632350126335</v>
+      </c>
+      <c r="B67">
+        <v>3.1807826037942846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1439.3424840055336</v>
+      </c>
+      <c r="B68">
+        <v>11.349379004414686</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>929.27035019221523</v>
+      </c>
+      <c r="B69">
+        <v>8.7845513182635386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1000.7837984486849</v>
+      </c>
+      <c r="B70">
+        <v>9.1806427148738976</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>117.60536404170925</v>
+      </c>
+      <c r="B71">
+        <v>1.6406078137384128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>964.56694937750888</v>
+      </c>
+      <c r="B72">
+        <v>9.0794097762529873</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>120.51451030145792</v>
+      </c>
+      <c r="B73">
+        <v>1.7177767097827399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>326.24155153402455</v>
+      </c>
+      <c r="B74">
+        <v>4.0272093764719443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1013.3300234489692</v>
+      </c>
+      <c r="B75">
+        <v>9.2880475526063719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>993.17173777568644</v>
+      </c>
+      <c r="B76">
+        <v>9.3895580982564297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1079.5798975478442</v>
+      </c>
+      <c r="B77">
+        <v>9.8623498589849987</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1018.577326728037</v>
+      </c>
+      <c r="B78">
+        <v>9.4448083226232029</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>997.99518335306789</v>
+      </c>
+      <c r="B79">
+        <v>9.144638137832203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>856.98391592934115</v>
+      </c>
+      <c r="B80">
+        <v>8.3591270125266419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1856.209453905595</v>
+      </c>
+      <c r="B81">
+        <v>12.547931480918351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>153.36775438250942</v>
+      </c>
+      <c r="B82">
+        <v>2.4815227627128422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>618.23176268104748</v>
+      </c>
+      <c r="B83">
+        <v>6.9174766590384706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1063.7238618268552</v>
+      </c>
+      <c r="B84">
+        <v>9.4946444913982759</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1067.2490090984209</v>
+      </c>
+      <c r="B85">
+        <v>9.707740940075837</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>89.574554987956049</v>
+      </c>
+      <c r="B86">
+        <v>1.3012096724502413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>257.52786167499829</v>
+      </c>
+      <c r="B87">
+        <v>3.4739589731267984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>992.70173235035077</v>
+      </c>
+      <c r="B88">
+        <v>9.5121889640845438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>997.76785918646135</v>
+      </c>
+      <c r="B89">
+        <v>9.5316524179490898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>164.13197229683277</v>
+      </c>
+      <c r="B90">
+        <v>2.2734872629941094</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>915.75799265673402</v>
+      </c>
+      <c r="B91">
+        <v>9.0644024895767643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>94.495560420217359</v>
+      </c>
+      <c r="B92">
+        <v>1.3974039497125261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1848.0996332196605</v>
+      </c>
+      <c r="B93">
+        <v>12.275676934552394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>938.18222194937721</v>
+      </c>
+      <c r="B94">
+        <v>8.8214733452651899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1713.3947133805457</v>
+      </c>
+      <c r="B95">
+        <v>11.862206851712017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>557.16659769374212</v>
+      </c>
+      <c r="B96">
+        <v>6.2964168204972566</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PyGeo2020UF.xlsx
+++ b/PyGeo2020UF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PYRX" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Oxide (wt.%)</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>LITH_CODE</t>
+  </si>
+  <si>
+    <t>Alteration</t>
+  </si>
+  <si>
+    <t>ALT_CODE</t>
   </si>
 </sst>
 </file>
@@ -3038,15 +3047,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3056,8 +3065,11 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3067,8 +3079,11 @@
       <c r="C2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>45</v>
       </c>
@@ -3078,8 +3093,11 @@
       <c r="C3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>76</v>
       </c>
@@ -3089,8 +3107,11 @@
       <c r="C4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -3100,8 +3121,11 @@
       <c r="C5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>300</v>
       </c>
@@ -3111,8 +3135,11 @@
       <c r="C6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>450</v>
       </c>
@@ -3122,8 +3149,11 @@
       <c r="C7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>786</v>
       </c>
@@ -3133,8 +3163,11 @@
       <c r="C8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>800</v>
       </c>
@@ -3144,8 +3177,11 @@
       <c r="C9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -3154,6 +3190,9 @@
       </c>
       <c r="C10" t="s">
         <v>83</v>
+      </c>
+      <c r="D10">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3163,15 +3202,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3179,10 +3218,13 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3192,8 +3234,11 @@
       <c r="C2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>45</v>
       </c>
@@ -3203,8 +3248,11 @@
       <c r="C3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>76</v>
       </c>
@@ -3214,8 +3262,11 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -3225,8 +3276,11 @@
       <c r="C5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>300</v>
       </c>
@@ -3236,8 +3290,11 @@
       <c r="C6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>450</v>
       </c>
@@ -3247,8 +3304,11 @@
       <c r="C7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>720</v>
       </c>
@@ -3258,8 +3318,11 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>786</v>
       </c>
@@ -3269,8 +3332,11 @@
       <c r="C9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>800</v>
       </c>
@@ -3280,8 +3346,11 @@
       <c r="C10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -3290,6 +3359,9 @@
       </c>
       <c r="C11" t="s">
         <v>92</v>
+      </c>
+      <c r="D11">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4870,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PyGeo2020UF.xlsx
+++ b/PyGeo2020UF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PYRX" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>Oxide (wt.%)</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>ALT_CODE</t>
+  </si>
+  <si>
+    <t>RQD_P</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +3210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3371,15 +3377,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3387,13 +3393,16 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3406,8 +3415,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3420,8 +3432,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -3434,8 +3449,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3448,8 +3466,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -3457,13 +3478,16 @@
         <v>50</v>
       </c>
       <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -3471,13 +3495,16 @@
         <v>60</v>
       </c>
       <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -3485,13 +3512,16 @@
         <v>70</v>
       </c>
       <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -3499,13 +3529,16 @@
         <v>80</v>
       </c>
       <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>80</v>
       </c>
@@ -3513,13 +3546,16 @@
         <v>90</v>
       </c>
       <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -3527,13 +3563,16 @@
         <v>100</v>
       </c>
       <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -3541,13 +3580,16 @@
         <v>110</v>
       </c>
       <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>110</v>
       </c>
@@ -3555,13 +3597,16 @@
         <v>120</v>
       </c>
       <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>120</v>
       </c>
@@ -3569,13 +3614,16 @@
         <v>130</v>
       </c>
       <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130</v>
       </c>
@@ -3583,13 +3631,16 @@
         <v>140</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>140</v>
       </c>
@@ -3597,13 +3648,16 @@
         <v>150</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>150</v>
       </c>
@@ -3611,13 +3665,16 @@
         <v>160</v>
       </c>
       <c r="C17">
+        <v>0.76</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>160</v>
       </c>
@@ -3625,13 +3682,16 @@
         <v>170</v>
       </c>
       <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>170</v>
       </c>
@@ -3639,13 +3699,16 @@
         <v>180</v>
       </c>
       <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>180</v>
       </c>
@@ -3653,13 +3716,16 @@
         <v>190</v>
       </c>
       <c r="C20">
+        <v>0.9</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>190</v>
       </c>
@@ -3667,13 +3733,16 @@
         <v>200</v>
       </c>
       <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>200</v>
       </c>
@@ -3681,13 +3750,16 @@
         <v>210</v>
       </c>
       <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>210</v>
       </c>
@@ -3695,13 +3767,16 @@
         <v>220</v>
       </c>
       <c r="C23">
+        <v>0.7</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>220</v>
       </c>
@@ -3709,13 +3784,16 @@
         <v>230</v>
       </c>
       <c r="C24">
+        <v>0.9</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>230</v>
       </c>
@@ -3723,13 +3801,16 @@
         <v>240</v>
       </c>
       <c r="C25">
+        <v>0.9</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>240</v>
       </c>
@@ -3737,13 +3818,16 @@
         <v>250</v>
       </c>
       <c r="C26">
+        <v>0.8</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>250</v>
       </c>
@@ -3751,13 +3835,16 @@
         <v>260</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>260</v>
       </c>
@@ -3765,13 +3852,16 @@
         <v>270</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>270</v>
       </c>
@@ -3779,13 +3869,16 @@
         <v>280</v>
       </c>
       <c r="C29">
+        <v>0.8</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>280</v>
       </c>
@@ -3793,13 +3886,16 @@
         <v>290</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>290</v>
       </c>
@@ -3807,13 +3903,16 @@
         <v>300</v>
       </c>
       <c r="C31">
+        <v>0.9</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>300</v>
       </c>
@@ -3821,13 +3920,16 @@
         <v>310</v>
       </c>
       <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>310</v>
       </c>
@@ -3835,13 +3937,16 @@
         <v>320</v>
       </c>
       <c r="C33">
+        <v>0.2</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>320</v>
       </c>
@@ -3849,13 +3954,16 @@
         <v>330</v>
       </c>
       <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>330</v>
       </c>
@@ -3863,13 +3971,16 @@
         <v>340</v>
       </c>
       <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>340</v>
       </c>
@@ -3877,13 +3988,16 @@
         <v>350</v>
       </c>
       <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>350</v>
       </c>
@@ -3891,13 +4005,16 @@
         <v>360</v>
       </c>
       <c r="C37">
+        <v>0.1</v>
+      </c>
+      <c r="D37">
         <v>2</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>360</v>
       </c>
@@ -3905,13 +4022,16 @@
         <v>370</v>
       </c>
       <c r="C38">
+        <v>0.9</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>370</v>
       </c>
@@ -3919,13 +4039,16 @@
         <v>380</v>
       </c>
       <c r="C39">
+        <v>0.8</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>380</v>
       </c>
@@ -3933,13 +4056,16 @@
         <v>390</v>
       </c>
       <c r="C40">
+        <v>0.1</v>
+      </c>
+      <c r="D40">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>390</v>
       </c>
@@ -3947,13 +4073,16 @@
         <v>400</v>
       </c>
       <c r="C41">
+        <v>0.6</v>
+      </c>
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>400</v>
       </c>
@@ -3961,13 +4090,16 @@
         <v>410</v>
       </c>
       <c r="C42">
+        <v>0.4</v>
+      </c>
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>410</v>
       </c>
@@ -3975,13 +4107,16 @@
         <v>420</v>
       </c>
       <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>420</v>
       </c>
@@ -3989,13 +4124,16 @@
         <v>430</v>
       </c>
       <c r="C44">
+        <v>0.3</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>430</v>
       </c>
@@ -4003,13 +4141,16 @@
         <v>440</v>
       </c>
       <c r="C45">
+        <v>0.3</v>
+      </c>
+      <c r="D45">
         <v>2</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>440</v>
       </c>
@@ -4017,13 +4158,16 @@
         <v>450</v>
       </c>
       <c r="C46">
+        <v>0.2</v>
+      </c>
+      <c r="D46">
         <v>1</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>450</v>
       </c>
@@ -4031,13 +4175,16 @@
         <v>460</v>
       </c>
       <c r="C47">
+        <v>0.6</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>460</v>
       </c>
@@ -4045,13 +4192,16 @@
         <v>470</v>
       </c>
       <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>470</v>
       </c>
@@ -4059,13 +4209,16 @@
         <v>480</v>
       </c>
       <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>480</v>
       </c>
@@ -4073,13 +4226,16 @@
         <v>490</v>
       </c>
       <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>490</v>
       </c>
@@ -4087,13 +4243,16 @@
         <v>500</v>
       </c>
       <c r="C51">
+        <v>0.1</v>
+      </c>
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>500</v>
       </c>
@@ -4101,13 +4260,16 @@
         <v>510</v>
       </c>
       <c r="C52">
+        <v>0.9</v>
+      </c>
+      <c r="D52">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>510</v>
       </c>
@@ -4115,13 +4277,16 @@
         <v>520</v>
       </c>
       <c r="C53">
+        <v>0.2</v>
+      </c>
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>520</v>
       </c>
@@ -4129,13 +4294,16 @@
         <v>530</v>
       </c>
       <c r="C54">
+        <v>0.2</v>
+      </c>
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>530</v>
       </c>
@@ -4143,13 +4311,16 @@
         <v>540</v>
       </c>
       <c r="C55">
+        <v>0.3</v>
+      </c>
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>540</v>
       </c>
@@ -4157,13 +4328,16 @@
         <v>550</v>
       </c>
       <c r="C56">
+        <v>0.8</v>
+      </c>
+      <c r="D56">
         <v>4</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>550</v>
       </c>
@@ -4171,13 +4345,16 @@
         <v>560</v>
       </c>
       <c r="C57">
+        <v>0.7</v>
+      </c>
+      <c r="D57">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>560</v>
       </c>
@@ -4185,13 +4362,16 @@
         <v>570</v>
       </c>
       <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
         <v>4</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>2.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>570</v>
       </c>
@@ -4199,13 +4379,16 @@
         <v>580</v>
       </c>
       <c r="C59">
+        <v>0.9</v>
+      </c>
+      <c r="D59">
         <v>4</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>580</v>
       </c>
@@ -4213,13 +4396,16 @@
         <v>590</v>
       </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>4</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>8.6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>590</v>
       </c>
@@ -4227,13 +4413,16 @@
         <v>600</v>
       </c>
       <c r="C61">
+        <v>0.9</v>
+      </c>
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0.02</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>600</v>
       </c>
@@ -4241,13 +4430,16 @@
         <v>610</v>
       </c>
       <c r="C62">
+        <v>0.8</v>
+      </c>
+      <c r="D62">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>0.46</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>610</v>
       </c>
@@ -4255,13 +4447,16 @@
         <v>620</v>
       </c>
       <c r="C63">
+        <v>0.6</v>
+      </c>
+      <c r="D63">
         <v>4</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>7.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>620</v>
       </c>
@@ -4269,13 +4464,16 @@
         <v>630</v>
       </c>
       <c r="C64">
+        <v>0.9</v>
+      </c>
+      <c r="D64">
         <v>5</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>630</v>
       </c>
@@ -4283,13 +4481,16 @@
         <v>640</v>
       </c>
       <c r="C65">
+        <v>0.6</v>
+      </c>
+      <c r="D65">
         <v>5</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>640</v>
       </c>
@@ -4297,13 +4498,16 @@
         <v>650</v>
       </c>
       <c r="C66">
+        <v>0.9</v>
+      </c>
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>650</v>
       </c>
@@ -4311,13 +4515,16 @@
         <v>660</v>
       </c>
       <c r="C67">
+        <v>0.7</v>
+      </c>
+      <c r="D67">
         <v>4</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>5.67</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>660</v>
       </c>
@@ -4325,13 +4532,16 @@
         <v>670</v>
       </c>
       <c r="C68">
+        <v>0.4</v>
+      </c>
+      <c r="D68">
         <v>4</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>6.89</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>670</v>
       </c>
@@ -4339,13 +4549,16 @@
         <v>680</v>
       </c>
       <c r="C69">
+        <v>0.3</v>
+      </c>
+      <c r="D69">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>0.02</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>680</v>
       </c>
@@ -4353,13 +4566,16 @@
         <v>690</v>
       </c>
       <c r="C70">
+        <v>0.4</v>
+      </c>
+      <c r="D70">
         <v>5</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>690</v>
       </c>
@@ -4367,13 +4583,16 @@
         <v>700</v>
       </c>
       <c r="C71">
+        <v>0.9</v>
+      </c>
+      <c r="D71">
         <v>4</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>6.7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>700</v>
       </c>
@@ -4381,13 +4600,16 @@
         <v>710</v>
       </c>
       <c r="C72">
+        <v>0.9</v>
+      </c>
+      <c r="D72">
         <v>4</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>4.3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>710</v>
       </c>
@@ -4395,13 +4617,16 @@
         <v>720</v>
       </c>
       <c r="C73">
+        <v>0.9</v>
+      </c>
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>2.1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>720</v>
       </c>
@@ -4409,13 +4634,16 @@
         <v>730</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>4.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>730</v>
       </c>
@@ -4423,13 +4651,16 @@
         <v>740</v>
       </c>
       <c r="C75">
+        <v>0.9</v>
+      </c>
+      <c r="D75">
         <v>3</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>740</v>
       </c>
@@ -4437,13 +4668,16 @@
         <v>750</v>
       </c>
       <c r="C76">
+        <v>0.9</v>
+      </c>
+      <c r="D76">
         <v>4</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>750</v>
       </c>
@@ -4451,13 +4685,16 @@
         <v>760</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>760</v>
       </c>
@@ -4465,13 +4702,16 @@
         <v>770</v>
       </c>
       <c r="C78">
+        <v>0.9</v>
+      </c>
+      <c r="D78">
         <v>4</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>770</v>
       </c>
@@ -4479,13 +4719,16 @@
         <v>780</v>
       </c>
       <c r="C79">
+        <v>0.6</v>
+      </c>
+      <c r="D79">
         <v>4</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>5.76</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>780</v>
       </c>
@@ -4493,13 +4736,16 @@
         <v>790</v>
       </c>
       <c r="C80">
+        <v>0.1</v>
+      </c>
+      <c r="D80">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>13.45</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>790</v>
       </c>
@@ -4510,10 +4756,13 @@
         <v>0</v>
       </c>
       <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
         <v>23.67</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>800</v>
       </c>
@@ -4521,13 +4770,16 @@
         <v>810</v>
       </c>
       <c r="C82">
+        <v>0.9</v>
+      </c>
+      <c r="D82">
         <v>5</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>16.7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>810</v>
       </c>
@@ -4535,13 +4787,16 @@
         <v>820</v>
       </c>
       <c r="C83">
+        <v>0.9</v>
+      </c>
+      <c r="D83">
         <v>5</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>820</v>
       </c>
@@ -4549,13 +4804,16 @@
         <v>830</v>
       </c>
       <c r="C84">
+        <v>0.8</v>
+      </c>
+      <c r="D84">
         <v>5</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>0.45</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>830</v>
       </c>
@@ -4563,13 +4821,16 @@
         <v>840</v>
       </c>
       <c r="C85">
+        <v>0.8</v>
+      </c>
+      <c r="D85">
         <v>6</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>4.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>840</v>
       </c>
@@ -4577,13 +4838,16 @@
         <v>850</v>
       </c>
       <c r="C86">
+        <v>0.9</v>
+      </c>
+      <c r="D86">
         <v>5</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>850</v>
       </c>
@@ -4591,13 +4855,16 @@
         <v>860</v>
       </c>
       <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
         <v>5</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>860</v>
       </c>
@@ -4605,13 +4872,16 @@
         <v>870</v>
       </c>
       <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
         <v>5</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>0.4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>870</v>
       </c>
@@ -4619,13 +4889,16 @@
         <v>880</v>
       </c>
       <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>5</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>0.01</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>880</v>
       </c>
@@ -4633,13 +4906,16 @@
         <v>890</v>
       </c>
       <c r="C90">
+        <v>0.8</v>
+      </c>
+      <c r="D90">
         <v>5</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>0.06</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>890</v>
       </c>
@@ -4647,13 +4923,16 @@
         <v>900</v>
       </c>
       <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
         <v>4</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>900</v>
       </c>
@@ -4661,13 +4940,16 @@
         <v>910</v>
       </c>
       <c r="C92">
+        <v>0.8</v>
+      </c>
+      <c r="D92">
         <v>5</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>0.08</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>910</v>
       </c>
@@ -4675,13 +4957,16 @@
         <v>920</v>
       </c>
       <c r="C93">
+        <v>0.9</v>
+      </c>
+      <c r="D93">
         <v>6</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>920</v>
       </c>
@@ -4689,13 +4974,16 @@
         <v>930</v>
       </c>
       <c r="C94">
+        <v>0.6</v>
+      </c>
+      <c r="D94">
         <v>4</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>0.01</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>930</v>
       </c>
@@ -4703,13 +4991,16 @@
         <v>940</v>
       </c>
       <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
         <v>6</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.04</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>940</v>
       </c>
@@ -4717,13 +5008,16 @@
         <v>950</v>
       </c>
       <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
         <v>5</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>950</v>
       </c>
@@ -4731,13 +5025,16 @@
         <v>960</v>
       </c>
       <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
         <v>5</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>960</v>
       </c>
@@ -4745,13 +5042,16 @@
         <v>970</v>
       </c>
       <c r="C98">
+        <v>0.9</v>
+      </c>
+      <c r="D98">
         <v>5</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>0.06</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>970</v>
       </c>
@@ -4759,13 +5059,16 @@
         <v>980</v>
       </c>
       <c r="C99">
+        <v>0.5</v>
+      </c>
+      <c r="D99">
         <v>4</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>0.03</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>980</v>
       </c>
@@ -4773,13 +5076,16 @@
         <v>990</v>
       </c>
       <c r="C100">
+        <v>0.9</v>
+      </c>
+      <c r="D100">
         <v>6</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>0.01</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>990</v>
       </c>
@@ -4787,13 +5093,16 @@
         <v>1000</v>
       </c>
       <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
         <v>5</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1000</v>
       </c>
@@ -4804,10 +5113,13 @@
         <v>0</v>
       </c>
       <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1010</v>
       </c>
@@ -4815,13 +5127,16 @@
         <v>1020</v>
       </c>
       <c r="C103">
+        <v>0.2</v>
+      </c>
+      <c r="D103">
         <v>1</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1020</v>
       </c>
@@ -4829,13 +5144,16 @@
         <v>1030</v>
       </c>
       <c r="C104">
+        <v>0.1</v>
+      </c>
+      <c r="D104">
         <v>1</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1030</v>
       </c>
@@ -4843,13 +5161,16 @@
         <v>1040</v>
       </c>
       <c r="C105">
+        <v>0.1</v>
+      </c>
+      <c r="D105">
         <v>2</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1040</v>
       </c>
@@ -4857,13 +5178,16 @@
         <v>1050</v>
       </c>
       <c r="C106">
+        <v>0.2</v>
+      </c>
+      <c r="D106">
         <v>1</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>0.01</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1050</v>
       </c>
@@ -4871,13 +5195,16 @@
         <v>1060</v>
       </c>
       <c r="C107">
+        <v>0.4</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1060</v>
       </c>
@@ -4885,13 +5212,16 @@
         <v>1070</v>
       </c>
       <c r="C108">
+        <v>0.5</v>
+      </c>
+      <c r="D108">
         <v>1</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>0.02</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1070</v>
       </c>
@@ -4902,10 +5232,13 @@
         <v>0</v>
       </c>
       <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
         <v>0.01</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1080</v>
       </c>
@@ -4913,13 +5246,16 @@
         <v>1090</v>
       </c>
       <c r="C110">
+        <v>0.1</v>
+      </c>
+      <c r="D110">
         <v>1</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1090</v>
       </c>
@@ -4927,10 +5263,18 @@
         <v>1100</v>
       </c>
       <c r="C111">
+        <v>0.3</v>
+      </c>
+      <c r="D111">
         <v>1</v>
       </c>
-      <c r="D111">
-        <v>0</v>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/PyGeo2020UF.xlsx
+++ b/PyGeo2020UF.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t>Oxide (wt.%)</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>RQD_P</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -3377,10 +3374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5270,11 +5267,6 @@
       </c>
       <c r="E111">
         <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/PyGeo2020UF.xlsx
+++ b/PyGeo2020UF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PYRX" sheetId="1" r:id="rId1"/>
@@ -3052,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3195,7 +3195,7 @@
         <v>83</v>
       </c>
       <c r="D10">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>

--- a/PyGeo2020UF.xlsx
+++ b/PyGeo2020UF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PYRX" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="WELL_GEO" sheetId="2" r:id="rId3"/>
     <sheet name="WELL_ALT" sheetId="5" r:id="rId4"/>
     <sheet name="WELL_GT" sheetId="6" r:id="rId5"/>
-    <sheet name="GCHRON" sheetId="4" r:id="rId6"/>
+    <sheet name="WELL_COLLAR" sheetId="7" r:id="rId6"/>
+    <sheet name="GCHRON" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Oxide (wt.%)</t>
   </si>
@@ -320,6 +321,39 @@
   </si>
   <si>
     <t>RQD_P</t>
+  </si>
+  <si>
+    <t>WELL_ID</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>DRILL_CO</t>
+  </si>
+  <si>
+    <t>BOART LY</t>
+  </si>
+  <si>
+    <t>Upper Flats</t>
+  </si>
+  <si>
+    <t>HL_001</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>AZIMUTH</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>FINISH</t>
   </si>
 </sst>
 </file>
@@ -386,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,6 +430,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3052,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5276,6 +5312,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="7">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="7">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/PyGeo2020UF.xlsx
+++ b/PyGeo2020UF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PYRX" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3412,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,7 +4977,7 @@
         <v>900</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -5306,6 +5327,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5314,7 +5340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
